--- a/market_analysis_output/z_Returns_set_0_data_df_stdev_196307_to_202212.xlsx
+++ b/market_analysis_output/z_Returns_set_0_data_df_stdev_196307_to_202212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,141 +451,71 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Size_Lo30_real_ret</t>
+          <t>T30_real_ret</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06218178313037948</v>
+        <v>0.003549574975647942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Value_Hi30_real_ret</t>
+          <t>B10_real_ret</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05086041294953589</v>
+        <v>0.02276201017144967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Oprof_Hi30_real_ret</t>
+          <t>VWD_real_ret</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04472169452863784</v>
+        <v>0.04495043577115584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Inv_Lo30_real_ret</t>
+          <t>Size_Lo30_real_ret</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04483697555108362</v>
+        <v>0.06218178313037948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Mom_Hi30_real_ret</t>
+          <t>Value_Hi30_real_ret</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05338145304125589</v>
+        <v>0.05086041294953589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>EP_Hi30_real_ret</t>
+          <t>Vol_Lo20_real_ret</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04792518645555731</v>
+        <v>0.03555417081171613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Vol_Lo20_real_ret</t>
+          <t>Mom_Hi30_real_ret</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03555417081171613</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Div_Hi30_real_ret</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04076432888300606</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>EQWFact_real_ret</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.04420030309209833</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>T30_real_ret</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.003549574975647942</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>T90_real_ret</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.003807505650789233</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>B10_real_ret</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.02276201017144967</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>VWD_real_ret</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.04495043577115584</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>EWD_real_ret</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05591014584520058</v>
+        <v>0.05338145304125589</v>
       </c>
     </row>
   </sheetData>
